--- a/biology/Zoologie/Epicephala/Epicephala.xlsx
+++ b/biology/Zoologie/Epicephala/Epicephala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epicephala est un genre de lépidoptères (papillons) de la famille des Gracillariidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Epicephala acrobaphes (Turner, 1900)
@@ -524,7 +538,7 @@
 Epicephala anthophilia Kawakita A, Kato M, 2016
 Epicephala australis (Turner, 1896)
 Epicephala bathrobaphes Turner, 1947
-Epicephala bipollenella Zhang, Hu, Wang &amp; Li, 2012[1]
+Epicephala bipollenella Zhang, Hu, Wang &amp; Li, 2012
 Epicephala bromias Meyrick, 1910
 Epicephala calasiris Meyrick, 1908
 Epicephala camurella Li, 2015
@@ -532,7 +546,7 @@
 Epicephala corruptrix Kawakita A, Kato M, 2016
 Epicephala domina Li, 2015
 Epicephala epimicta (Turner, 1913)
-Epicephala eriocarpa Zhang, Hu, Wang &amp; Li, 2012[1]
+Epicephala eriocarpa Zhang, Hu, Wang &amp; Li, 2012
 Epicephala euchalina Meyrick, 1922
 Epicephala eugonia Turner, 1913
 Epicephala exetastis Meyrick, 1908
@@ -543,12 +557,12 @@
 Epicephala impolliniferens Li, 2015
 Epicephala jansei Vári, 1961
 Epicephala laeviclada Li, 2015
-Epicephala lanceolaria Zhang, Hu, Wang &amp; Li, 2012[1]
+Epicephala lanceolaria Zhang, Hu, Wang &amp; Li, 2012
 Epicephala lanceolatella Kawakita A, Kato M, 2016
-Epicephala lativalvaris Zhang, Hu, Wang &amp; Li, 2012[1]
+Epicephala lativalvaris Zhang, Hu, Wang &amp; Li, 2012
 Epicephala lomatographa Turner, 1913
 Epicephala microcarpa Li, 2015
-Epicephala mirivalvata Zhang, Hu, Wang &amp; Li, 2012[1]
+Epicephala mirivalvata Zhang, Hu, Wang &amp; Li, 2012
 Epicephala nephelodes Turner, 1913
 Epicephala nudilingua Kawakita A, Kato M, 2016
 Epicephala obovatella Kawakita A, Kato M, 2016
@@ -572,7 +586,7 @@
 Epicephala trigonophora (Turner, 1900)
 Epicephala venenata Meyrick, 1935
 Epicephala vermiformis Meyrick, 1936
-Epicephala vitisidaea Zhang, Hu, Wang &amp; Li, 2012[1]
+Epicephala vitisidaea Zhang, Hu, Wang &amp; Li, 2012
 Epicephala zalosticha Turner, 1940
 </t>
         </is>
@@ -602,10 +616,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epicephala est important pour l'anthécologie et la coévolution, car de nombreuses espèces de ce genre sont des pollinisateurs de plantes appartenant aux genres Glochidion, Phyllanthus et Breynia (Phyllanthaceae). Ces Epicephala pollinisateurs pollinisent activement les fleurs des plantes-hôtes, garantissant ainsi que les plantes peuvent produire des graines viables, mais pondent également dans les ovaires des fleurs, où leurs chenilles consomment un sous-ensemble des graines en développement[2]. Cette relation est semblable à celle d'autres mutualismes spécialisés dans la prédation des graines par la pollinisation, tels que ceux qui existent entre les Ficus et les guêpes du figuier, et entre les Yucca et les Prodoxidae.
-Les chenilles d'autres espèces d’Epicephala consomment les graines d'espèces de Phyllanthus ou de Flueggea, mais ne pollinisent pas leurs plantes hôtes à l'âge adulte. Au moins certaines de ces espèces ont évolué d'ancêtres pollinisateurs[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epicephala est important pour l'anthécologie et la coévolution, car de nombreuses espèces de ce genre sont des pollinisateurs de plantes appartenant aux genres Glochidion, Phyllanthus et Breynia (Phyllanthaceae). Ces Epicephala pollinisateurs pollinisent activement les fleurs des plantes-hôtes, garantissant ainsi que les plantes peuvent produire des graines viables, mais pondent également dans les ovaires des fleurs, où leurs chenilles consomment un sous-ensemble des graines en développement. Cette relation est semblable à celle d'autres mutualismes spécialisés dans la prédation des graines par la pollinisation, tels que ceux qui existent entre les Ficus et les guêpes du figuier, et entre les Yucca et les Prodoxidae.
+Les chenilles d'autres espèces d’Epicephala consomment les graines d'espèces de Phyllanthus ou de Flueggea, mais ne pollinisent pas leurs plantes hôtes à l'âge adulte. Au moins certaines de ces espèces ont évolué d'ancêtres pollinisateurs.
 </t>
         </is>
       </c>
